--- a/destination/example_copy.xlsx
+++ b/destination/example_copy.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -23,13 +23,25 @@
     <t>Score</t>
   </si>
   <si>
-    <t>Karthi</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>FS001</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>FS003</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
   <si>
     <t>FS004</t>
   </si>
   <si>
-    <t>Demo</t>
+    <t>e</t>
   </si>
   <si>
     <t>FS005</t>
@@ -77,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -94,31 +106,49 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" t="s" s="0">
+    <row r="2">
+      <c r="A2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="B2" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="C7" t="n" s="0">
-        <v>98.0</v>
+      <c r="C2" t="n" s="0">
+        <v>100.0</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
+    <row r="3"/>
+    <row r="4">
+      <c r="A4" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B8" t="s" s="0">
+      <c r="B4" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C8" t="n" s="0">
-        <v>20.0</v>
+      <c r="C4" t="n" s="0">
+        <v>26.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C5" t="n" s="0">
+        <v>300.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="C6" t="n" s="0">
+        <v>39.0</v>
       </c>
     </row>
   </sheetData>
